--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées/Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées/Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Midi-Pyrénées est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Midi-Pyrénées, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 30 décembre 2004[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Midi-Pyrénées est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Midi-Pyrénées, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 30 décembre 2004.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,95 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ptéridophytes
-Cheilanthes acrostica (Balb.) Tod., Cheilanthès Acrostic
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cheilanthes acrostica (Balb.) Tod., Cheilanthès Acrostic
 Dryopteris submontana (Fraser-Jenk. &amp; Jermy) Fraser-Jenk., Dryoptéris submontagnard
 Equisetum sylvaticum L., Prêle des bois
 Lycopodium annotinum L., Lycopode à rameaux annuels
 Paragymnopteris marantae (L.) K.H.Shing, anciennement Notholaena marantae (L.) Desv., Doradille de Maranta
-Thelypteris palustris Schott, Fougère des marais
-Phanérogames - Gymnospermes
-Juniperus oxycedrus L. subsp. macrocarpa (Sm.) Ball., Genévrier à gros fruits.
-Juniperus thurifera L., Genévrier thurifère
-Phanérogames - Angiospermes
-Monocotylédones
-Agrostis durieui Boiss. &amp; Reut. ex Gand., Agrostide tronquée.
+Thelypteris palustris Schott, Fougère des marais</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phanérogames - Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juniperus oxycedrus L. subsp. macrocarpa (Sm.) Ball., Genévrier à gros fruits.
+Juniperus thurifera L., Genévrier thurifère</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agrostis durieui Boiss. &amp; Reut. ex Gand., Agrostide tronquée.
 Alopecurus bulbosus Gouan, Vulpin bulbeux.
 Anacamptis papilionacea (L.) Bateman, Pridgeon &amp; Chase., Orchis papillon.
 Asparagus tenuifolius Lam., Asperge à feuilles étroites.
@@ -560,9 +648,47 @@
 Sagittaria sagittifolia L., Sagittaire à feuilles en flèche.
 Schoenoplectus mucronatus (L.) Palla., Scirpe mucroné.
 Serapias cordigera L., Sérapias en cœur.
-Triglochin palustre L., Troscart des marais.
-Dicotylédones
-Aconitum variegatum L. subsp. pyrenaicum Vivant &amp; Delay., Aconit panaché des Pyrénées.
+Triglochin palustre L., Troscart des marais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aconitum variegatum L. subsp. pyrenaicum Vivant &amp; Delay., Aconit panaché des Pyrénées.
 Aethionema saxatile (L.) R. Br. subsp. ovalifolium (DC.) Nyman., Aethionème à feuilles ovales.
 Alyssum cuneifolium Ten., Alysson à feuilles en coin.
 Androsace ciliata DC., Androsace ciliée.
@@ -672,77 +798,158 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans l'Ariège</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.
-Phanérogames - Angiospermes - Dicotylédones
-Hydrocotyle vulgaris L., Ecuelle-d’eau.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans l'Ariège</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes - Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hydrocotyle vulgaris L., Ecuelle-d’eau.
 Nuphar lutea (L.) Sm., Nénuphar jaune.
 Potentilla palustris (L.) Scop., Comaret.
 Ranunculus gramineus L., Renoncule à feuilles de graminée.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans l'Aveyron</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Asplenium viride Huds., Doradille verte.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Asplenium viride Huds., Doradille verte.
 Gymnocarpium robertianum (Hoffm.) Newman., Polypode de Robert.
 Huperzia selago (L.) Bernh. ex Schrank &amp; Mart., Lycopode sélagine.
 Lycopodium clavatum L., Lycopode en massue.
-Polystichum lonchitis (L.) Roth., Polystic en fer de lance.
-Phanérogames - Angiospermes
-Monocotylédones
-Allium ericetorum Thore., Ail des bruyères.
+Polystichum lonchitis (L.) Roth., Polystic en fer de lance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans l'Aveyron</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Allium ericetorum Thore., Ail des bruyères.
 Carex dioica L., Laîche dioïque.
 Carex lasiocarpa Ehrh., Laîche à fruits velus.
 Epipactis palustris (L.) Crantz., Epipactis des marais.
@@ -752,9 +959,47 @@
 Luzula luzulina (Vill.) Dalla Torre &amp; Sarnth., Luzule jaunâtre.
 Potamogeton alpinus Balb., Potamot des Alpes.
 Simethis mattiazzii (Vand.) G. López &amp; Jarvis., Siméthis à feuilles planes.
-Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.
-Dicotylédones
-Campanula latifolia L., Campanule à larges feuilles.
+Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans l'Aveyron</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Campanula latifolia L., Campanule à larges feuilles.
 Campanula speciosa Pourr. subsp. speciosa, Campanule remarquable.
 Cardamine raphanifolia Pourr. subsp. raphanifolia, Cardamine à larges feuilles
 Circaea alpina L. subsp. alpina, Circée des Alpes.
@@ -765,7 +1010,7 @@
 Noccaea montana (L.) F. K. Mey., Tabouret des montagnes.
 Pinguicula vulgaris L., Grassette commune.
 Salix bicolor Willd., Saule bicolore.
-Saxifraga clusii Gouan subsp. clusii, Saxifrage de Clusius[2].
+Saxifraga clusii Gouan subsp. clusii, Saxifrage de Clusius.
 Saxifraga stellaris L. subsp. robusta (Engl.) Gremli., Saxifrage étoilée.
 Scrophularia canina L. subsp. juratensis (Schleich. ex Wydler) Bonnier &amp; Layens., Scrofulaire du Jura
 Sedum villosum L., Orpin velu.
@@ -776,41 +1021,121 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans la Haute-Garonne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.
-Osmunda regalis L., Osmonde royale.
-Phanérogames - Angiospermes
-Monocotylédones
-Aphyllanthes monspeliensis L., Aphyllanthe de Montpellier.
-Fritillaria meleagris L., Fritillaire pintade.
-Dicotylédones
-Cirsium tuberosum (L.) All., Cirse tubéreux.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.
+Osmunda regalis L., Osmonde royale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans la Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aphyllanthes monspeliensis L., Aphyllanthe de Montpellier.
+Fritillaria meleagris L., Fritillaire pintade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans la Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cirsium tuberosum (L.) All., Cirse tubéreux.
 Convolvulus cantabrica L., Liseron des monts Cantabriques.
 Hydrocotyle vulgaris L., Ecuelle-d’eau.
 Leuzea conifera (L.) DC., Leuzée conifère.
@@ -819,45 +1144,125 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans le Gers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
-Dryopteris remota (A. Braun ex Döll) Druce., Dryoptéris espacé.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dryopteris remota (A. Braun ex Döll) Druce., Dryoptéris espacé.
 Oreopteris limbosperma (Bellardi ex All.) Holub., Fougère des montagnes.
-Osmunda regalis L., Osmonde royale.
-Phanérogames - Angiospermes
-Monocotylédones
-Anthericum liliago L., Phalangère à fleurs de lis.
+Osmunda regalis L., Osmonde royale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Gers</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Anthericum liliago L., Phalangère à fleurs de lis.
 Aphyllanthes monspeliensis L., Aphyllanthe de Montpellier.
 Epipactis palustris (L.) Crantz., Epipactis des marais.
 Eriophorum latifolium Hoppe., Linaigrette à larges feuilles.
-Fritillaria meleagris L., Fritillaire pintade.
-Dicotylédones
-Anagallis tenella (L.) L., Mouron délicat.
+Fritillaria meleagris L., Fritillaire pintade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Gers</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anagallis tenella (L.) L., Mouron délicat.
 Convolvulus cantabrica L., Liseron des monts Cantabriques.
 Hydrocotyle vulgaris L., Ecuelle-d’eau.
 Lavandula latifolia Medik., Lavande à larges feuilles.
@@ -869,47 +1274,127 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans le Lot</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Dryopteris remota (A. Braun ex Döll) Druce., Dryoptéris espacé.
-Gymnocarpium robertianum (Hofm.) Newman., Polypode de Robert.
-Phanérogames - Angiospermes
-Monocotylédones
-Carex brizoides L., Laîche fausse Brize.
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dryopteris remota (A. Braun ex Döll) Druce., Dryoptéris espacé.
+Gymnocarpium robertianum (Hofm.) Newman., Polypode de Robert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Lot</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Carex brizoides L., Laîche fausse Brize.
 Epipactis palustris (L.) Crantz., Epipactis des marais.
 Eriophorum latifolium Hoppe., Linaigrette à larges feuilles.
 Lilium pyrenaicum Gouan., Lis des Pyrénées.
 Potamogeton alpinus Balb., Potamot des Alpes.
 Potamogeton coloratus Hornem., Potamot coloré.
 Simethis mattiazzii (Vand.) G. López &amp; Jarvis., Siméthis à feuilles planes.
-Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.
-Dicotylédones
-Biscutella cichoriifolia Loisel., Lunetière à feuilles de chicorée.
+Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Lot</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Biscutella cichoriifolia Loisel., Lunetière à feuilles de chicorée.
 Erica ciliaris Loefl. ex L., Bruyère ciliée.
 Erica tetralix L., Bruyère à quatre angles.
 Erica vagans L., Bruyère vagabonde.
@@ -923,37 +1408,79 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans les Hautes-Pyrénées</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.
-Phanérogames - Angiospermes
-Dicotylédones
-Cytisus decumbens (Durande) Spach., Cytise retombant.
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Anogramma leptophylla (L.) Link., Anogramme à feuilles minces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans les Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cytisus decumbens (Durande) Spach., Cytise retombant.
 Hydrocotyle vulgaris L., Ecuelle-d’eau.
 Nuphar lutea (L.) Sm., Nénuphar jaune.
 Potentilla palustris (L.) Scop., Comaret.
@@ -961,47 +1488,127 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées dans le Tarn</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ptéridophytes
-Gymnocarpium robertianum (Hoffm.) Newman., Polypode de Robert.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Gymnocarpium robertianum (Hoffm.) Newman., Polypode de Robert.
 Huperzia selago (L.) Bernh. ex Schrank &amp; Mart., Lycopode sélagine.
-Lycopodium clavatum L., Lycopode en massue.
-Phanérogames - Angiospermes
-Monocotylédones
-Epipactis palustris (L.) Crantz., Epipactis des marais.
+Lycopodium clavatum L., Lycopode en massue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Tarn</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Epipactis palustris (L.) Crantz., Epipactis des marais.
 Eriophorum latifolium Hoppe., Linaigrette à larges feuilles.
 Fritillaria nigra Mill., Fritillaire des Pyrénées.
 Lilium pyrenaicum Gouan., Lis des Pyrénées.
 Orchis pallens L., Orchis pâle.
 Simethis mattiazzii (Vand.) G. López &amp; Jarvis., Siméthis à feuilles planes.
-Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.
-Dicotylédones
-Cardamine raphanifolia Pourr. subsp. raphanifolia, Cardamine à larges feuilles.
+Trichophorum cespitosum (L.) Hartm., Scirpe cespiteux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées dans le Tarn</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cardamine raphanifolia Pourr. subsp. raphanifolia, Cardamine à larges feuilles.
 Erica vagans L., Bruyère vagabonde.
 Lobelia urens L., Lobélie brûlante.
 Meconopsis cambrica (L.) Vig., Pavot du pays de Galles.
@@ -1009,39 +1616,85 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Liste des espèces végétales protégées en Tarn-et-Garonne</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Phanérogames - Angiospermes
-Monocotylédones
-Epipactis palustris (L.) Crantz., Epipactis des marais.
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Epipactis palustris (L.) Crantz., Epipactis des marais.
 Fritillaria meleagris L., Fritillaire pintade.
-Lilium pyrenaicum Gouan., Lis des Pyrénées.
-Dicotylédones
-Scrophularia canina L. subsp juratensis (Schleich. ex Wydler), Bonnier &amp; Layens., Scrofulaire du Jura.</t>
+Lilium pyrenaicum Gouan., Lis des Pyrénées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Midi-Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales protégées en Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Phanérogames - Angiospermes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Scrophularia canina L. subsp juratensis (Schleich. ex Wydler), Bonnier &amp; Layens., Scrofulaire du Jura.</t>
         </is>
       </c>
     </row>
